--- a/Otdel kadrov/report.xlsx
+++ b/Otdel kadrov/report.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Users\bilin\Documents\Visual Studio 2015\Projects\Відділ кадрів\Відділ кадрів\Відділ кадрів\bin\Debug\x86\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460"/>
   </bookViews>
@@ -53,7 +48,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -116,11 +111,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -134,6 +126,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -194,7 +190,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -229,7 +225,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -406,7 +402,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -417,7 +413,7 @@
   <dimension ref="B2:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F8" sqref="F8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,53 +427,53 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="7" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Otdel kadrov/report.xlsx
+++ b/Otdel kadrov/report.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Users\bilin\Documents\Visual Studio 2015\Projects\Відділ кадрів\Відділ кадрів\Otdel kadrov\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>за</t>
   </si>
@@ -43,13 +48,16 @@
   </si>
   <si>
     <t>Список прийнятих та звільнених працівників</t>
+  </si>
+  <si>
+    <t>Причина</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,6 +68,22 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -111,15 +135,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -129,7 +149,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -402,7 +430,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -410,64 +438,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G8"/>
+  <dimension ref="A2:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:G8"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="2.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="6" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D3" s="4" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="3"/>
     </row>
-    <row r="7" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="H7" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
